--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1635150.823659896</v>
+        <v>1633455.965426003</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>72.47049842454874</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>48.16522454442875</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>18.40882703545771</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>95.73354123677414</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="D4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>232.3303155802432</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5.64555637816685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>92.72349595751056</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>130.4655268502615</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>68.21015448122991</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1181,19 +1181,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>64.13863269867674</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.31110394229523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>87.68958101214713</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>108.1960350243787</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>357.7795714149542</v>
       </c>
       <c r="C11" t="n">
-        <v>340.3186215224812</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>329.7287713721566</v>
+        <v>243.2238561374547</v>
       </c>
       <c r="E11" t="n">
         <v>356.9760998237354</v>
@@ -1388,7 +1388,7 @@
         <v>290.4347245022873</v>
       </c>
       <c r="I11" t="n">
-        <v>94.85220997855049</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4731875638752</v>
+        <v>130.4731875638753</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171957</v>
+        <v>187.8463886171958</v>
       </c>
       <c r="U11" t="n">
-        <v>41.8169279746495</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V11" t="n">
         <v>302.7979882216085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>324.2866984688866</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7768304299427</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>361.2836684075272</v>
@@ -1467,7 +1467,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I12" t="n">
-        <v>46.07197699567759</v>
+        <v>46.07197699567762</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.02995793686989</v>
+        <v>22.02995793686992</v>
       </c>
       <c r="S12" t="n">
         <v>148.3099331995005</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>142.2925508501015</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>120.4667777744049</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701501</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>89.03069220524833</v>
       </c>
       <c r="T13" t="n">
         <v>198.4837816320203</v>
       </c>
       <c r="U13" t="n">
-        <v>79.76248550580182</v>
+        <v>261.3072160754402</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>200.7553851405108</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.6303831035684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>357.7795714149542</v>
       </c>
       <c r="C14" t="n">
-        <v>340.3186215224811</v>
+        <v>340.3186215224812</v>
       </c>
       <c r="D14" t="n">
-        <v>329.7287713721565</v>
+        <v>329.7287713721566</v>
       </c>
       <c r="E14" t="n">
         <v>356.9760998237354</v>
       </c>
       <c r="F14" t="n">
-        <v>381.921775493185</v>
+        <v>381.9217754931851</v>
       </c>
       <c r="G14" t="n">
-        <v>387.9966247312781</v>
+        <v>387.9966247312782</v>
       </c>
       <c r="H14" t="n">
-        <v>290.4347245022873</v>
+        <v>93.04567623543986</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855043</v>
+        <v>94.85220997855052</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638752</v>
+        <v>130.4731875638753</v>
       </c>
       <c r="T14" t="n">
-        <v>3.460081335361451</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564836</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V14" t="n">
         <v>302.7979882216085</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>344.7768304299426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>361.2836684075272</v>
@@ -1704,7 +1704,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I15" t="n">
-        <v>46.07197699567759</v>
+        <v>46.07197699567762</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.02995793686989</v>
+        <v>22.02995793686992</v>
       </c>
       <c r="S15" t="n">
         <v>148.3099331995005</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>142.2925508501015</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>123.661202769686</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4667777744048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>141.981753513654</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>127.8933879574564</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77081274701496</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S16" t="n">
-        <v>180.67732889694</v>
+        <v>24.21438843194656</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>261.3072160754402</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.1833730753016</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880646</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.66573689586806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.0160662705759</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C17" t="n">
-        <v>282.5551163781029</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D17" t="n">
-        <v>271.9652662277783</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E17" t="n">
-        <v>299.2125946793571</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F17" t="n">
-        <v>324.1582703488068</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G17" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H17" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417216</v>
+        <v>37.08870483417209</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949691</v>
+        <v>72.70968241949681</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U17" t="n">
-        <v>168.4397301121054</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V17" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W17" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X17" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y17" t="n">
-        <v>303.5201632631489</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I18" t="n">
-        <v>46.07197699567759</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.02995793686988</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S18" t="n">
         <v>148.3099331995005</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.11420478903261</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C19" t="n">
-        <v>84.52904570572315</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D19" t="n">
-        <v>65.89769762530767</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002656</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G19" t="n">
-        <v>84.2182483692757</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.12988281307807</v>
+        <v>70.12988281307797</v>
       </c>
       <c r="I19" t="n">
-        <v>41.0073076026367</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342088</v>
+        <v>47.14097617342078</v>
       </c>
       <c r="S19" t="n">
         <v>122.9138237525617</v>
@@ -2056,19 +2056,19 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U19" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V19" t="n">
-        <v>103.7680173486527</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W19" t="n">
-        <v>203.8052229436863</v>
+        <v>199.6627410796651</v>
       </c>
       <c r="X19" t="n">
-        <v>142.9918799961325</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y19" t="n">
-        <v>135.8668779591901</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>299.212594679357</v>
       </c>
       <c r="F20" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G20" t="n">
         <v>330.2331195868998</v>
@@ -2132,19 +2132,19 @@
         <v>72.70968241949683</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U20" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V20" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W20" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X20" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y20" t="n">
         <v>303.5201632631488</v>
@@ -2178,7 +2178,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I21" t="n">
-        <v>46.07197699567759</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.02995793686988</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S21" t="n">
         <v>148.3099331995005</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C22" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D22" t="n">
-        <v>33.64386457840631</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E22" t="n">
-        <v>63.71618725366442</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F22" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G22" t="n">
-        <v>84.21824836927563</v>
+        <v>24.98009334641972</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307801</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263663</v>
+        <v>41.0073076026366</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.1409761734208</v>
+        <v>47.14097617342079</v>
       </c>
       <c r="S22" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T22" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U22" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V22" t="n">
-        <v>169.4198679309233</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W22" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X22" t="n">
         <v>142.9918799961324</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.0160662705759</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C23" t="n">
-        <v>282.5551163781029</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D23" t="n">
-        <v>271.9652662277783</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E23" t="n">
-        <v>299.2125946793571</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F23" t="n">
-        <v>324.1582703488068</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G23" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H23" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I23" t="n">
-        <v>37.08870483417219</v>
+        <v>37.08870483417209</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.70968241949691</v>
+        <v>72.70968241949683</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U23" t="n">
         <v>168.4397301121054</v>
       </c>
       <c r="V23" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W23" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X23" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y23" t="n">
-        <v>303.5201632631489</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C25" t="n">
-        <v>52.27521265881944</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D25" t="n">
-        <v>65.89769762530767</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E25" t="n">
-        <v>63.71618725366449</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F25" t="n">
-        <v>62.70327263002656</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G25" t="n">
-        <v>84.2182483692757</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H25" t="n">
-        <v>70.12988281307807</v>
+        <v>70.12988281307798</v>
       </c>
       <c r="I25" t="n">
-        <v>41.0073076026367</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.14097617342088</v>
+        <v>47.14097617342079</v>
       </c>
       <c r="S25" t="n">
-        <v>122.9138237525618</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T25" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U25" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V25" t="n">
-        <v>169.4198679309233</v>
+        <v>81.0591376976259</v>
       </c>
       <c r="W25" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X25" t="n">
-        <v>142.9918799961325</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.8668779591901</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="26">
@@ -2725,13 +2725,13 @@
         <v>62.70327263002649</v>
       </c>
       <c r="G28" t="n">
-        <v>84.21824836927563</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>70.129882813078</v>
       </c>
       <c r="I28" t="n">
-        <v>41.00730760263663</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>47.14097617342081</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9138237525617</v>
+        <v>118.7713418885394</v>
       </c>
       <c r="T28" t="n">
         <v>140.7202764876419</v>
@@ -2776,7 +2776,7 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X28" t="n">
-        <v>13.62384216019805</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y28" t="n">
         <v>135.86687795919</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300.0160662705759</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C29" t="n">
-        <v>282.5551163781029</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D29" t="n">
-        <v>271.9652662277783</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E29" t="n">
-        <v>299.2125946793571</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F29" t="n">
-        <v>324.1582703488068</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G29" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H29" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I29" t="n">
-        <v>37.08870483417219</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.70968241949693</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T29" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U29" t="n">
-        <v>168.4397301121054</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V29" t="n">
         <v>245.0344830772302</v>
@@ -2858,7 +2858,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y29" t="n">
-        <v>303.5201632631489</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.11420478903261</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C31" t="n">
-        <v>84.52904570572315</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>61.75521576128358</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E31" t="n">
-        <v>63.71618725366449</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F31" t="n">
-        <v>62.70327263002656</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H31" t="n">
-        <v>70.12988281307807</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.14097617342089</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9138237525618</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T31" t="n">
         <v>140.7202764876419</v>
@@ -3010,13 +3010,13 @@
         <v>169.4198679309233</v>
       </c>
       <c r="W31" t="n">
-        <v>203.8052229436863</v>
+        <v>158.9662308134751</v>
       </c>
       <c r="X31" t="n">
-        <v>142.9918799961325</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.8668779591901</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.64386457840572</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C34" t="n">
         <v>84.52904570572308</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E34" t="n">
         <v>63.71618725366442</v>
@@ -3202,10 +3202,10 @@
         <v>84.21824836927563</v>
       </c>
       <c r="H34" t="n">
-        <v>70.129882813078</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.00730760263663</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.86687795919</v>
+        <v>117.6360305389703</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>300.0160662705759</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C35" t="n">
-        <v>282.5551163781029</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D35" t="n">
-        <v>271.9652662277783</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E35" t="n">
-        <v>299.2125946793571</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F35" t="n">
-        <v>324.1582703488068</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G35" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H35" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I35" t="n">
-        <v>37.08870483417219</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70968241949691</v>
+        <v>72.70968241949686</v>
       </c>
       <c r="T35" t="n">
         <v>130.0828834728174</v>
       </c>
       <c r="U35" t="n">
-        <v>168.4397301121054</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V35" t="n">
         <v>245.0344830772302</v>
@@ -3332,7 +3332,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y35" t="n">
-        <v>303.5201632631489</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903261</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C37" t="n">
-        <v>84.52904570572315</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D37" t="n">
-        <v>65.89769762530767</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71618725366449</v>
+        <v>18.56639778700513</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70327263002656</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>70.12988281307807</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I37" t="n">
-        <v>41.0073076026367</v>
+        <v>41.00730760263664</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.991186706760402</v>
+        <v>47.14097617342082</v>
       </c>
       <c r="S37" t="n">
-        <v>122.9138237525618</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T37" t="n">
         <v>140.7202764876419</v>
@@ -3487,10 +3487,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X37" t="n">
-        <v>142.9918799961325</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.8668779591901</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>300.0160662705759</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C38" t="n">
-        <v>282.5551163781029</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D38" t="n">
-        <v>271.9652662277783</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E38" t="n">
-        <v>299.2125946793571</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F38" t="n">
-        <v>324.1582703488068</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G38" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H38" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I38" t="n">
-        <v>37.08870483417219</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70968241949691</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T38" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4397301121054</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V38" t="n">
         <v>245.0344830772302</v>
@@ -3569,7 +3569,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.5201632631489</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.11420478903261</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C40" t="n">
-        <v>84.52904570572315</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>47.66685020508798</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71618725366449</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G40" t="n">
-        <v>84.2182483692757</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H40" t="n">
-        <v>69.36281523247602</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.0073076026367</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.14097617342088</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S40" t="n">
-        <v>122.9138237525618</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T40" t="n">
         <v>140.7202764876419</v>
@@ -3724,10 +3724,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X40" t="n">
-        <v>142.9918799961325</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.8668779591901</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="41">
@@ -3749,16 +3749,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F41" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G41" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H41" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I41" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417206</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.70968241949686</v>
+        <v>72.70968241949679</v>
       </c>
       <c r="T41" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U41" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121052</v>
       </c>
       <c r="V41" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W41" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X41" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y41" t="n">
         <v>303.5201632631488</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.11420478903254</v>
+        <v>97.11420478903248</v>
       </c>
       <c r="C43" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572302</v>
       </c>
       <c r="D43" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530754</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.71618725366436</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>84.21824836927563</v>
+        <v>84.21824836927557</v>
       </c>
       <c r="H43" t="n">
-        <v>70.12988281307801</v>
+        <v>3.465117607170814</v>
       </c>
       <c r="I43" t="n">
-        <v>41.00730760263664</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.19239822117732</v>
+        <v>47.14097617342075</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T43" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U43" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V43" t="n">
-        <v>169.4198679309233</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W43" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X43" t="n">
         <v>142.9918799961324</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C44" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D44" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E44" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F44" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G44" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H44" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I44" t="n">
-        <v>37.08870483417212</v>
+        <v>37.0887048341722</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949694</v>
       </c>
       <c r="T44" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U44" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V44" t="n">
         <v>245.0344830772302</v>
@@ -4043,7 +4043,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11420478903254</v>
+        <v>97.11420478903263</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>84.52904570572316</v>
       </c>
       <c r="D46" t="n">
-        <v>21.05870549509645</v>
+        <v>6.659542602449463</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71618725366442</v>
+        <v>63.7161872536645</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002658</v>
       </c>
       <c r="G46" t="n">
-        <v>84.21824836927563</v>
+        <v>84.21824836927571</v>
       </c>
       <c r="H46" t="n">
-        <v>70.129882813078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263663</v>
+        <v>41.00730760263671</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.14097617342081</v>
+        <v>47.1409761734209</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T46" t="n">
         <v>140.7202764876419</v>
@@ -4198,10 +4198,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X46" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625565</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C2" t="n">
-        <v>348.0024326625565</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D2" t="n">
-        <v>348.0024326625565</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>348.0024326625565</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>104.5536560184564</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4355,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>348.0024326625565</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V2" t="n">
-        <v>348.0024326625565</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W2" t="n">
-        <v>348.0024326625565</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>521.2549444941228</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="C3" t="n">
-        <v>346.8019152129958</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="D3" t="n">
-        <v>197.8675055517446</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E3" t="n">
-        <v>38.63005054628906</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F3" t="n">
-        <v>38.63005054628906</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
         <v>20.03527576299844</v>
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>639.1329905432131</v>
       </c>
       <c r="X3" t="n">
-        <v>689.4702815141908</v>
+        <v>639.1329905432131</v>
       </c>
       <c r="Y3" t="n">
-        <v>689.4702815141908</v>
+        <v>431.3726917782591</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F5" t="n">
-        <v>315.6850394389064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G5" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>479.7536884346249</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="C6" t="n">
-        <v>305.3006591534979</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D6" t="n">
-        <v>305.3006591534979</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4653,13 +4653,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N6" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N6" t="n">
-        <v>725.4530095217538</v>
-      </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4677,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>958.3545733104677</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>723.202465078725</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>479.7536884346249</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X6" t="n">
-        <v>479.7536884346249</v>
+        <v>635.2449503521152</v>
       </c>
       <c r="Y6" t="n">
-        <v>479.7536884346249</v>
+        <v>427.4846515871612</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>737.7960950516754</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>737.7960950516754</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>494.3473184075753</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>494.3473184075753</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>115.7075889192809</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4829,25 +4829,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>737.7960950516754</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>737.7960950516754</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>737.7960950516754</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4917,16 +4917,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>277.6047704292607</v>
+        <v>875.481821154932</v>
       </c>
       <c r="Y9" t="n">
-        <v>69.84447166430675</v>
+        <v>667.7215223899782</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
         <v>41.77557929797318</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2277.477558491002</v>
+        <v>1750.532359768039</v>
       </c>
       <c r="C11" t="n">
-        <v>1933.72137513496</v>
+        <v>1750.532359768039</v>
       </c>
       <c r="D11" t="n">
-        <v>1600.66201011258</v>
+        <v>1504.851697002933</v>
       </c>
       <c r="E11" t="n">
-        <v>1240.080091098705</v>
+        <v>1144.269777989059</v>
       </c>
       <c r="F11" t="n">
-        <v>854.3005198934679</v>
+        <v>758.4902067838216</v>
       </c>
       <c r="G11" t="n">
-        <v>462.3847373366218</v>
+        <v>366.5744242269749</v>
       </c>
       <c r="H11" t="n">
-        <v>169.0163287484528</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I11" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J11" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069159</v>
       </c>
       <c r="K11" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223496</v>
       </c>
       <c r="L11" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M11" t="n">
         <v>1831.488208231171</v>
       </c>
       <c r="N11" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191915</v>
       </c>
       <c r="O11" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P11" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931392</v>
       </c>
       <c r="Q11" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="R11" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="S11" t="n">
-        <v>3528.509683390925</v>
+        <v>3528.509683390923</v>
       </c>
       <c r="T11" t="n">
-        <v>3338.765856504869</v>
+        <v>3338.765856504867</v>
       </c>
       <c r="U11" t="n">
-        <v>3296.526535318354</v>
+        <v>3110.277740084177</v>
       </c>
       <c r="V11" t="n">
-        <v>2990.669981559153</v>
+        <v>2804.421186324976</v>
       </c>
       <c r="W11" t="n">
-        <v>2990.669981559153</v>
+        <v>2476.858864639232</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.410556882443</v>
+        <v>2476.858864639232</v>
       </c>
       <c r="Y11" t="n">
-        <v>2277.477558491002</v>
+        <v>2111.925866247791</v>
       </c>
     </row>
     <row r="12">
@@ -5106,31 +5106,31 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H12" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I12" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J12" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K12" t="n">
-        <v>399.7270172373159</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L12" t="n">
-        <v>900.1791953676907</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M12" t="n">
-        <v>1477.84204486569</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.816002121468</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O12" t="n">
         <v>2216.96817800723</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>294.6581272766038</v>
+        <v>216.9358649823427</v>
       </c>
       <c r="C13" t="n">
-        <v>294.6581272766038</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="D13" t="n">
-        <v>294.6581272766038</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="E13" t="n">
-        <v>294.6581272766038</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="F13" t="n">
-        <v>172.9745133630635</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="G13" t="n">
-        <v>172.9745133630635</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="H13" t="n">
-        <v>172.9745133630635</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I13" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965308</v>
+        <v>79.324661919653</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420086</v>
+        <v>203.3235852420084</v>
       </c>
       <c r="L13" t="n">
         <v>410.6171321895912</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475063</v>
+        <v>638.2252920475064</v>
       </c>
       <c r="N13" t="n">
         <v>866.4434782183685</v>
@@ -5224,25 +5224,25 @@
         <v>1238.295262094751</v>
       </c>
       <c r="S13" t="n">
-        <v>1238.295262094751</v>
+        <v>1148.365269968238</v>
       </c>
       <c r="T13" t="n">
-        <v>1037.80659377958</v>
+        <v>947.8766016530658</v>
       </c>
       <c r="U13" t="n">
-        <v>957.2384266020016</v>
+        <v>683.9299187485806</v>
       </c>
       <c r="V13" t="n">
-        <v>957.2384266020016</v>
+        <v>683.9299187485806</v>
       </c>
       <c r="W13" t="n">
-        <v>693.027590149411</v>
+        <v>419.71908229599</v>
       </c>
       <c r="X13" t="n">
-        <v>490.2443728357638</v>
+        <v>216.9358649823427</v>
       </c>
       <c r="Y13" t="n">
-        <v>294.6581272766038</v>
+        <v>216.9358649823427</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2277.477558491002</v>
+        <v>2078.094681453784</v>
       </c>
       <c r="C14" t="n">
-        <v>1933.72137513496</v>
+        <v>1734.338498097742</v>
       </c>
       <c r="D14" t="n">
-        <v>1600.66201011258</v>
+        <v>1401.279133075362</v>
       </c>
       <c r="E14" t="n">
-        <v>1240.080091098706</v>
+        <v>1040.697214061487</v>
       </c>
       <c r="F14" t="n">
-        <v>854.3005198934684</v>
+        <v>654.9176428562495</v>
       </c>
       <c r="G14" t="n">
-        <v>462.3847373366217</v>
+        <v>263.0018602994028</v>
       </c>
       <c r="H14" t="n">
-        <v>169.0163287484527</v>
+        <v>169.0163287484528</v>
       </c>
       <c r="I14" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J14" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K14" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L14" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M14" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N14" t="n">
         <v>2452.791422191916</v>
@@ -5306,22 +5306,22 @@
         <v>3528.509683390924</v>
       </c>
       <c r="T14" t="n">
-        <v>3525.014651739044</v>
+        <v>3338.765856504868</v>
       </c>
       <c r="U14" t="n">
-        <v>3296.526535318354</v>
+        <v>3110.277740084177</v>
       </c>
       <c r="V14" t="n">
-        <v>2990.669981559153</v>
+        <v>2804.421186324977</v>
       </c>
       <c r="W14" t="n">
-        <v>2990.669981559153</v>
+        <v>2804.421186324977</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.410556882443</v>
+        <v>2804.421186324977</v>
       </c>
       <c r="Y14" t="n">
-        <v>2277.477558491002</v>
+        <v>2439.488187933535</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H15" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I15" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J15" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K15" t="n">
-        <v>399.7270172373159</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L15" t="n">
-        <v>533.0472535172661</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M15" t="n">
-        <v>795.3165794070809</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N15" t="n">
-        <v>1463.839487262977</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O15" t="n">
-        <v>2008.991663148739</v>
+        <v>2488.017003181068</v>
       </c>
       <c r="P15" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.936419551312</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>438.0740399166581</v>
+        <v>614.4473238114301</v>
       </c>
       <c r="C16" t="n">
-        <v>438.0740399166581</v>
+        <v>470.7174744678932</v>
       </c>
       <c r="D16" t="n">
-        <v>438.0740399166581</v>
+        <v>345.8071686399276</v>
       </c>
       <c r="E16" t="n">
-        <v>438.0740399166581</v>
+        <v>345.8071686399276</v>
       </c>
       <c r="F16" t="n">
-        <v>316.3904260031179</v>
+        <v>345.8071686399276</v>
       </c>
       <c r="G16" t="n">
-        <v>172.9745133630634</v>
+        <v>202.391255999873</v>
       </c>
       <c r="H16" t="n">
-        <v>172.9745133630634</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I16" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J16" t="n">
-        <v>79.32466191965318</v>
+        <v>79.32466191965302</v>
       </c>
       <c r="K16" t="n">
-        <v>203.3235852420087</v>
+        <v>203.3235852420084</v>
       </c>
       <c r="L16" t="n">
-        <v>410.6171321895915</v>
+        <v>410.6171321895911</v>
       </c>
       <c r="M16" t="n">
-        <v>638.2252920475066</v>
+        <v>638.2252920475062</v>
       </c>
       <c r="N16" t="n">
-        <v>866.4434782183689</v>
+        <v>866.4434782183682</v>
       </c>
       <c r="O16" t="n">
-        <v>1063.109528897735</v>
+        <v>1063.109528897734</v>
       </c>
       <c r="P16" t="n">
         <v>1211.436193392007</v>
       </c>
       <c r="Q16" t="n">
-        <v>1238.295262094752</v>
+        <v>1238.295262094751</v>
       </c>
       <c r="R16" t="n">
-        <v>1238.295262094752</v>
+        <v>1132.33113955152</v>
       </c>
       <c r="S16" t="n">
-        <v>1055.7929096736</v>
+        <v>1107.872161337432</v>
       </c>
       <c r="T16" t="n">
-        <v>1055.7929096736</v>
+        <v>1107.872161337432</v>
       </c>
       <c r="U16" t="n">
-        <v>791.8462267691154</v>
+        <v>843.9254784329469</v>
       </c>
       <c r="V16" t="n">
-        <v>791.8462267691154</v>
+        <v>614.4473238114301</v>
       </c>
       <c r="W16" t="n">
-        <v>527.6353903165249</v>
+        <v>614.4473238114301</v>
       </c>
       <c r="X16" t="n">
-        <v>527.6353903165249</v>
+        <v>614.4473238114301</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.0740399166581</v>
+        <v>614.4473238114301</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C17" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E17" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F17" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135334</v>
       </c>
       <c r="G17" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H17" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I17" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J17" t="n">
-        <v>258.9898176069157</v>
+        <v>258.9898176069159</v>
       </c>
       <c r="K17" t="n">
-        <v>658.1763815223495</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L17" t="n">
         <v>1205.679240092234</v>
@@ -5528,10 +5528,10 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O17" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P17" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931392</v>
       </c>
       <c r="Q17" t="n">
         <v>3660.300781940293</v>
@@ -5540,25 +5540,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S17" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T17" t="n">
         <v>3455.459806291491</v>
       </c>
       <c r="U17" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V17" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W17" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X17" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y17" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I18" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J18" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K18" t="n">
-        <v>516.6851972600604</v>
+        <v>341.4065580211426</v>
       </c>
       <c r="L18" t="n">
-        <v>1017.137375390435</v>
+        <v>841.8587361515173</v>
       </c>
       <c r="M18" t="n">
-        <v>1192.072670992108</v>
+        <v>1477.84204486569</v>
       </c>
       <c r="N18" t="n">
-        <v>1463.839487262977</v>
+        <v>1671.816002121468</v>
       </c>
       <c r="O18" t="n">
-        <v>2008.991663148739</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P18" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.936419551312</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>485.8175860893593</v>
+        <v>423.6869106163811</v>
       </c>
       <c r="C19" t="n">
-        <v>400.4347116391339</v>
+        <v>338.3040361661558</v>
       </c>
       <c r="D19" t="n">
-        <v>333.8713807044796</v>
+        <v>271.7407052315016</v>
       </c>
       <c r="E19" t="n">
-        <v>333.8713807044796</v>
+        <v>207.3809201267901</v>
       </c>
       <c r="F19" t="n">
-        <v>270.5347416842508</v>
+        <v>144.0442811065614</v>
       </c>
       <c r="G19" t="n">
-        <v>185.4658039375076</v>
+        <v>144.0442811065614</v>
       </c>
       <c r="H19" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I19" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J19" t="n">
         <v>136.5105320125876</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278775</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L19" t="n">
-        <v>582.1747424683948</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M19" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N19" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O19" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P19" t="n">
         <v>1611.737284042549</v>
@@ -5701,22 +5701,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T19" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U19" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.452117087381</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W19" t="n">
-        <v>865.5882555281019</v>
+        <v>803.4575800551233</v>
       </c>
       <c r="X19" t="n">
-        <v>721.152013107766</v>
+        <v>659.0213376347876</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.9127424419175</v>
+        <v>521.7820669689391</v>
       </c>
     </row>
     <row r="20">
@@ -5726,70 +5726,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C20" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E20" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F20" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135337</v>
       </c>
       <c r="G20" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499985</v>
       </c>
       <c r="H20" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I20" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880584</v>
       </c>
       <c r="J20" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069162</v>
       </c>
       <c r="K20" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L20" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M20" t="n">
         <v>1831.488208231171</v>
       </c>
       <c r="N20" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191915</v>
       </c>
       <c r="O20" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P20" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931392</v>
       </c>
       <c r="Q20" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="R20" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="S20" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T20" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U20" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V20" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W20" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X20" t="n">
         <v>2478.681289322392</v>
@@ -5826,25 +5826,25 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I21" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880584</v>
       </c>
       <c r="J21" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880584</v>
       </c>
       <c r="K21" t="n">
-        <v>516.6851972600604</v>
+        <v>399.7270172373157</v>
       </c>
       <c r="L21" t="n">
-        <v>650.0054335400106</v>
+        <v>900.1791953676905</v>
       </c>
       <c r="M21" t="n">
-        <v>1285.988742254183</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.511650110079</v>
+        <v>1730.136461337641</v>
       </c>
       <c r="O21" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P21" t="n">
         <v>2429.521278084463</v>
@@ -5884,58 +5884,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>517.5977418537659</v>
+        <v>419.5025855012079</v>
       </c>
       <c r="C22" t="n">
-        <v>432.2148674035407</v>
+        <v>334.1197110509826</v>
       </c>
       <c r="D22" t="n">
-        <v>398.2311658091909</v>
+        <v>267.5563801163285</v>
       </c>
       <c r="E22" t="n">
-        <v>333.8713807044793</v>
+        <v>203.196595011617</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5347416842505</v>
+        <v>139.8599559913882</v>
       </c>
       <c r="G22" t="n">
-        <v>185.4658039375075</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="H22" t="n">
         <v>114.6275384697519</v>
       </c>
       <c r="I22" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880584</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K22" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L22" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M22" t="n">
-        <v>866.9687724192449</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N22" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O22" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P22" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q22" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R22" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S22" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T22" t="n">
         <v>1381.868004238608</v>
@@ -5950,10 +5950,10 @@
         <v>799.2732549399502</v>
       </c>
       <c r="X22" t="n">
-        <v>654.8370125196144</v>
+        <v>654.8370125196145</v>
       </c>
       <c r="Y22" t="n">
-        <v>517.5977418537659</v>
+        <v>517.597741853766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C23" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D23" t="n">
         <v>1308.927135646023</v>
@@ -5978,10 +5978,10 @@
         <v>679.259595213534</v>
       </c>
       <c r="G23" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H23" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I23" t="n">
         <v>73.20601563880587</v>
@@ -5990,13 +5990,13 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L23" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M23" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N23" t="n">
         <v>2452.791422191916</v>
@@ -6017,19 +6017,19 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T23" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U23" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V23" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W23" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X23" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y23" t="n">
         <v>2172.095265824262</v>
@@ -6075,10 +6075,10 @@
         <v>1017.137375390435</v>
       </c>
       <c r="M24" t="n">
-        <v>1192.072670992107</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N24" t="n">
-        <v>1463.839487262977</v>
+        <v>1847.094641360385</v>
       </c>
       <c r="O24" t="n">
         <v>2008.991663148739</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>517.5977418537641</v>
+        <v>508.7558483631242</v>
       </c>
       <c r="C25" t="n">
-        <v>464.7944967438455</v>
+        <v>423.3729739128989</v>
       </c>
       <c r="D25" t="n">
-        <v>398.2311658091912</v>
+        <v>356.8096429782448</v>
       </c>
       <c r="E25" t="n">
-        <v>333.8713807044796</v>
+        <v>292.4498578735333</v>
       </c>
       <c r="F25" t="n">
-        <v>270.5347416842509</v>
+        <v>229.1132188533045</v>
       </c>
       <c r="G25" t="n">
-        <v>185.4658039375078</v>
+        <v>144.0442811065614</v>
       </c>
       <c r="H25" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I25" t="n">
         <v>73.20601563880587</v>
@@ -6148,49 +6148,49 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L25" t="n">
-        <v>582.1747424683948</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192443</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N25" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O25" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P25" t="n">
-        <v>1611.737284042548</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q25" t="n">
         <v>1695.782222838228</v>
       </c>
       <c r="R25" t="n">
-        <v>1648.165075188307</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S25" t="n">
-        <v>1524.009697660467</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T25" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U25" t="n">
-        <v>1176.268296227433</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V25" t="n">
-        <v>1005.137116499228</v>
+        <v>1094.390379361146</v>
       </c>
       <c r="W25" t="n">
-        <v>799.2732549399485</v>
+        <v>888.5265178018666</v>
       </c>
       <c r="X25" t="n">
-        <v>654.8370125196127</v>
+        <v>744.0902753815309</v>
       </c>
       <c r="Y25" t="n">
-        <v>517.5977418537641</v>
+        <v>606.8510047156824</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1869.048734237823</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C26" t="n">
-        <v>1583.639525775093</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D26" t="n">
-        <v>1308.927135646024</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E26" t="n">
-        <v>1006.692191525461</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F26" t="n">
-        <v>679.2595952135352</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G26" t="n">
-        <v>345.6907875500001</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H26" t="n">
         <v>110.6693538551413</v>
@@ -6251,25 +6251,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S26" t="n">
-        <v>3586.856658284237</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T26" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U26" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V26" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W26" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X26" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.095265824263</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J27" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K27" t="n">
-        <v>137.906432594863</v>
+        <v>254.8646126176074</v>
       </c>
       <c r="L27" t="n">
-        <v>638.3586107252377</v>
+        <v>755.3167907479822</v>
       </c>
       <c r="M27" t="n">
-        <v>1274.34191943941</v>
+        <v>930.2520863496545</v>
       </c>
       <c r="N27" t="n">
-        <v>1942.864827295306</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O27" t="n">
-        <v>2488.017003181068</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P27" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q27" t="n">
         <v>2657.936419551312</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.1773711940704</v>
+        <v>423.6869106163814</v>
       </c>
       <c r="C28" t="n">
-        <v>464.794496743845</v>
+        <v>338.304036166156</v>
       </c>
       <c r="D28" t="n">
-        <v>398.2311658091909</v>
+        <v>271.7407052315019</v>
       </c>
       <c r="E28" t="n">
-        <v>333.8713807044793</v>
+        <v>207.3809201267904</v>
       </c>
       <c r="F28" t="n">
-        <v>270.5347416842505</v>
+        <v>144.0442811065616</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4658039375075</v>
+        <v>144.0442811065616</v>
       </c>
       <c r="H28" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I28" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K28" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L28" t="n">
         <v>582.1747424683949</v>
@@ -6409,25 +6409,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S28" t="n">
-        <v>1524.009697660468</v>
+        <v>1528.194022775642</v>
       </c>
       <c r="T28" t="n">
-        <v>1381.868004238607</v>
+        <v>1386.052329353782</v>
       </c>
       <c r="U28" t="n">
-        <v>1176.268296227434</v>
+        <v>1180.452621342608</v>
       </c>
       <c r="V28" t="n">
-        <v>1005.137116499229</v>
+        <v>1009.321441614403</v>
       </c>
       <c r="W28" t="n">
-        <v>799.2732549399499</v>
+        <v>803.4575800551238</v>
       </c>
       <c r="X28" t="n">
-        <v>785.5117982124771</v>
+        <v>659.0213376347881</v>
       </c>
       <c r="Y28" t="n">
-        <v>648.2725275466285</v>
+        <v>521.7820669689395</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C29" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D29" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E29" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F29" t="n">
-        <v>679.2595952135335</v>
+        <v>679.2595952135346</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499983</v>
+        <v>345.6907875499993</v>
       </c>
       <c r="H29" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551417</v>
       </c>
       <c r="I29" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J29" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K29" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L29" t="n">
         <v>1205.679240092235</v>
@@ -6482,7 +6482,7 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q29" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R29" t="n">
         <v>3660.300781940293</v>
@@ -6491,7 +6491,7 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T29" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U29" t="n">
         <v>3285.318664764112</v>
@@ -6549,7 +6549,7 @@
         <v>1017.137375390435</v>
       </c>
       <c r="M30" t="n">
-        <v>1269.865530007199</v>
+        <v>1192.072670992107</v>
       </c>
       <c r="N30" t="n">
         <v>1463.839487262977</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>419.5025855012057</v>
+        <v>2429.31305584591</v>
       </c>
       <c r="C31" t="n">
-        <v>334.1197110509803</v>
+        <v>2429.31305584591</v>
       </c>
       <c r="D31" t="n">
-        <v>271.7407052315019</v>
+        <v>2362.749724911256</v>
       </c>
       <c r="E31" t="n">
-        <v>207.3809201267903</v>
+        <v>2298.389939806544</v>
       </c>
       <c r="F31" t="n">
-        <v>144.0442811065615</v>
+        <v>2235.053300786316</v>
       </c>
       <c r="G31" t="n">
-        <v>144.0442811065615</v>
+        <v>2149.984363039573</v>
       </c>
       <c r="H31" t="n">
-        <v>73.20601563880587</v>
+        <v>2079.146097571817</v>
       </c>
       <c r="I31" t="n">
-        <v>73.20601563880587</v>
+        <v>2037.724574740871</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5105320125874</v>
+        <v>2101.029091114653</v>
       </c>
       <c r="K31" t="n">
-        <v>317.6953254278774</v>
+        <v>2282.213884529943</v>
       </c>
       <c r="L31" t="n">
-        <v>582.1747424683947</v>
+        <v>2546.69330157046</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192443</v>
+        <v>2831.48733152131</v>
       </c>
       <c r="N31" t="n">
-        <v>1152.372828683041</v>
+        <v>3116.891387785106</v>
       </c>
       <c r="O31" t="n">
-        <v>1406.224749455341</v>
+        <v>3370.743308557407</v>
       </c>
       <c r="P31" t="n">
-        <v>1611.737284042549</v>
+        <v>3576.255843144614</v>
       </c>
       <c r="Q31" t="n">
-        <v>1695.782222838228</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R31" t="n">
-        <v>1648.165075188308</v>
+        <v>3612.683634290373</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.009697660468</v>
+        <v>3488.528256762534</v>
       </c>
       <c r="T31" t="n">
-        <v>1381.868004238607</v>
+        <v>3346.386563340673</v>
       </c>
       <c r="U31" t="n">
-        <v>1176.268296227433</v>
+        <v>3140.786855329499</v>
       </c>
       <c r="V31" t="n">
-        <v>1005.137116499228</v>
+        <v>2969.655675601294</v>
       </c>
       <c r="W31" t="n">
-        <v>799.2732549399491</v>
+        <v>2809.083725284652</v>
       </c>
       <c r="X31" t="n">
-        <v>654.8370125196133</v>
+        <v>2664.647482864316</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.5977418537639</v>
+        <v>2527.408212198468</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C32" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D32" t="n">
         <v>1308.927135646023</v>
@@ -6686,22 +6686,22 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F32" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G32" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H32" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I32" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J32" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K32" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L32" t="n">
         <v>1205.679240092235</v>
@@ -6725,7 +6725,7 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S32" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T32" t="n">
         <v>3455.459806291491</v>
@@ -6737,7 +6737,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W32" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X32" t="n">
         <v>2478.681289322392</v>
@@ -6777,22 +6777,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J33" t="n">
-        <v>73.20601563880587</v>
+        <v>117.4353314185053</v>
       </c>
       <c r="K33" t="n">
-        <v>137.906432594863</v>
+        <v>182.1357483745625</v>
       </c>
       <c r="L33" t="n">
-        <v>638.3586107252377</v>
+        <v>682.5879265049372</v>
       </c>
       <c r="M33" t="n">
-        <v>1274.34191943941</v>
+        <v>1318.571235219109</v>
       </c>
       <c r="N33" t="n">
-        <v>1942.864827295306</v>
+        <v>1987.094143075005</v>
       </c>
       <c r="O33" t="n">
-        <v>2216.96817800723</v>
+        <v>2532.246318960767</v>
       </c>
       <c r="P33" t="n">
         <v>2637.497792942953</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>483.6140402594162</v>
+        <v>437.9175828953686</v>
       </c>
       <c r="C34" t="n">
-        <v>398.2311658091909</v>
+        <v>352.5347084451432</v>
       </c>
       <c r="D34" t="n">
-        <v>398.2311658091909</v>
+        <v>285.9713775104891</v>
       </c>
       <c r="E34" t="n">
-        <v>333.8713807044793</v>
+        <v>221.6115924057775</v>
       </c>
       <c r="F34" t="n">
-        <v>270.5347416842505</v>
+        <v>158.2749533855488</v>
       </c>
       <c r="G34" t="n">
-        <v>185.4658039375075</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H34" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I34" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K34" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L34" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M34" t="n">
         <v>866.9687724192447</v>
@@ -6901,7 +6901,7 @@
         <v>654.8370125196139</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.5977418537655</v>
+        <v>536.0127392479267</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C35" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D35" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E35" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F35" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135337</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499985</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I35" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J35" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K35" t="n">
-        <v>658.1763815223499</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L35" t="n">
         <v>1205.679240092235</v>
@@ -6965,22 +6965,22 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T35" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U35" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V35" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W35" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X35" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y35" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="K36" t="n">
-        <v>137.906432594863</v>
+        <v>399.7270172373158</v>
       </c>
       <c r="L36" t="n">
-        <v>638.3586107252377</v>
+        <v>900.1791953676905</v>
       </c>
       <c r="M36" t="n">
-        <v>1274.34191943941</v>
+        <v>1185.240275491043</v>
       </c>
       <c r="N36" t="n">
-        <v>1942.864827295306</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O36" t="n">
-        <v>2488.017003181068</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P36" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q36" t="n">
         <v>2657.936419551312</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>465.1084334473275</v>
+        <v>419.5025855012068</v>
       </c>
       <c r="C37" t="n">
-        <v>379.725558997102</v>
+        <v>334.1197110509814</v>
       </c>
       <c r="D37" t="n">
-        <v>313.1622280624478</v>
+        <v>267.5563801163273</v>
       </c>
       <c r="E37" t="n">
-        <v>248.8024429577362</v>
+        <v>248.8024429577363</v>
       </c>
       <c r="F37" t="n">
-        <v>185.4658039375073</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="G37" t="n">
-        <v>185.4658039375073</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H37" t="n">
-        <v>114.6275384697517</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I37" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125875</v>
       </c>
       <c r="K37" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L37" t="n">
-        <v>582.1747424683948</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M37" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N37" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O37" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P37" t="n">
         <v>1611.737284042549</v>
       </c>
       <c r="Q37" t="n">
-        <v>1695.782222838227</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R37" t="n">
-        <v>1693.770923134429</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S37" t="n">
-        <v>1569.615545606589</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T37" t="n">
-        <v>1427.473852184728</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U37" t="n">
-        <v>1221.874144173555</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V37" t="n">
-        <v>1050.742964445349</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W37" t="n">
-        <v>844.8791028860703</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X37" t="n">
-        <v>700.4428604657345</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.2035897998857</v>
+        <v>517.5977418537649</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1869.048734237822</v>
       </c>
       <c r="C38" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E38" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F38" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I38" t="n">
         <v>73.20601563880587</v>
@@ -7251,25 +7251,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J39" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K39" t="n">
-        <v>137.906432594863</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L39" t="n">
-        <v>638.3586107252377</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M39" t="n">
-        <v>1274.34191943941</v>
+        <v>1192.072670992107</v>
       </c>
       <c r="N39" t="n">
-        <v>1942.864827295306</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O39" t="n">
-        <v>2488.017003181068</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P39" t="n">
-        <v>2593.268477163254</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q39" t="n">
         <v>2657.936419551312</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>419.5025855012059</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="C40" t="n">
-        <v>334.1197110509805</v>
+        <v>334.1197110509821</v>
       </c>
       <c r="D40" t="n">
-        <v>334.1197110509805</v>
+        <v>285.9713775104892</v>
       </c>
       <c r="E40" t="n">
-        <v>269.7599259462689</v>
+        <v>221.6115924057777</v>
       </c>
       <c r="F40" t="n">
-        <v>269.7599259462689</v>
+        <v>158.2749533855489</v>
       </c>
       <c r="G40" t="n">
-        <v>184.6909881995258</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H40" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I40" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5105320125875</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K40" t="n">
-        <v>317.6953254278775</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L40" t="n">
-        <v>582.1747424683947</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M40" t="n">
-        <v>866.9687724192443</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N40" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O40" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P40" t="n">
         <v>1611.737284042549</v>
@@ -7357,25 +7357,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S40" t="n">
-        <v>1524.009697660467</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T40" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U40" t="n">
-        <v>1176.268296227433</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V40" t="n">
-        <v>1005.137116499228</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W40" t="n">
-        <v>799.2732549399487</v>
+        <v>799.27325493995</v>
       </c>
       <c r="X40" t="n">
-        <v>654.8370125196129</v>
+        <v>654.8370125196143</v>
       </c>
       <c r="Y40" t="n">
-        <v>517.5977418537641</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237823</v>
       </c>
       <c r="C41" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775093</v>
       </c>
       <c r="D41" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646024</v>
       </c>
       <c r="E41" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135352</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499983</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H41" t="n">
         <v>110.6693538551413</v>
@@ -7436,25 +7436,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S41" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284237</v>
       </c>
       <c r="T41" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U41" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V41" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W41" t="n">
-        <v>2768.593739105789</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y41" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J42" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K42" t="n">
-        <v>137.906432594863</v>
+        <v>254.8646126176074</v>
       </c>
       <c r="L42" t="n">
-        <v>638.3586107252377</v>
+        <v>755.3167907479822</v>
       </c>
       <c r="M42" t="n">
-        <v>1274.34191943941</v>
+        <v>1391.300099462154</v>
       </c>
       <c r="N42" t="n">
-        <v>1942.864827295306</v>
+        <v>1671.816002121468</v>
       </c>
       <c r="O42" t="n">
-        <v>2488.017003181068</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P42" t="n">
         <v>2637.497792942953</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>422.48094706913</v>
+        <v>419.5025855012077</v>
       </c>
       <c r="C43" t="n">
-        <v>337.0980726189047</v>
+        <v>334.1197110509825</v>
       </c>
       <c r="D43" t="n">
-        <v>270.5347416842505</v>
+        <v>267.5563801163284</v>
       </c>
       <c r="E43" t="n">
-        <v>270.5347416842505</v>
+        <v>203.1965950116169</v>
       </c>
       <c r="F43" t="n">
-        <v>270.5347416842505</v>
+        <v>203.1965950116169</v>
       </c>
       <c r="G43" t="n">
-        <v>185.4658039375075</v>
+        <v>118.1276572648739</v>
       </c>
       <c r="H43" t="n">
         <v>114.6275384697519</v>
@@ -7576,10 +7576,10 @@
         <v>582.174742468395</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192448</v>
       </c>
       <c r="N43" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O43" t="n">
         <v>1406.224749455342</v>
@@ -7591,28 +7591,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R43" t="n">
-        <v>1651.143436756231</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S43" t="n">
-        <v>1526.988059228391</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T43" t="n">
-        <v>1384.84636580653</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U43" t="n">
-        <v>1179.246657795357</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V43" t="n">
-        <v>1008.115478067151</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W43" t="n">
-        <v>802.2516165078724</v>
+        <v>799.2732549399501</v>
       </c>
       <c r="X43" t="n">
-        <v>657.8153740875366</v>
+        <v>654.8370125196144</v>
       </c>
       <c r="Y43" t="n">
-        <v>520.5761034216881</v>
+        <v>517.5977418537658</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C44" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D44" t="n">
         <v>1308.927135646023</v>
@@ -7634,22 +7634,22 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F44" t="n">
-        <v>679.2595952135339</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G44" t="n">
         <v>345.6907875499987</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551415</v>
       </c>
       <c r="I44" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J44" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K44" t="n">
-        <v>658.1763815223503</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L44" t="n">
         <v>1205.679240092235</v>
@@ -7667,31 +7667,31 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q44" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R44" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="S44" t="n">
         <v>3586.856658284236</v>
       </c>
       <c r="T44" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U44" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V44" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W44" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I45" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J45" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K45" t="n">
-        <v>516.6851972600602</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L45" t="n">
-        <v>650.0054335400104</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M45" t="n">
-        <v>824.9407291416827</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N45" t="n">
-        <v>1463.839487262977</v>
+        <v>1671.816002121468</v>
       </c>
       <c r="O45" t="n">
-        <v>2008.991663148739</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P45" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q45" t="n">
         <v>2657.936419551312</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>419.5025855012076</v>
+        <v>419.502585501206</v>
       </c>
       <c r="C46" t="n">
-        <v>419.5025855012076</v>
+        <v>334.1197110509806</v>
       </c>
       <c r="D46" t="n">
-        <v>398.2311658091911</v>
+        <v>327.3929003414357</v>
       </c>
       <c r="E46" t="n">
-        <v>333.8713807044795</v>
+        <v>263.033115236724</v>
       </c>
       <c r="F46" t="n">
-        <v>270.5347416842508</v>
+        <v>199.6964762164952</v>
       </c>
       <c r="G46" t="n">
-        <v>185.4658039375075</v>
+        <v>114.6275384697521</v>
       </c>
       <c r="H46" t="n">
-        <v>114.627538469752</v>
+        <v>114.6275384697521</v>
       </c>
       <c r="I46" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J46" t="n">
         <v>136.5105320125875</v>
       </c>
       <c r="K46" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278775</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683947</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N46" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O46" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P46" t="n">
         <v>1611.737284042549</v>
@@ -7831,25 +7831,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S46" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T46" t="n">
         <v>1381.868004238607</v>
       </c>
       <c r="U46" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V46" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W46" t="n">
-        <v>799.2732549399495</v>
+        <v>799.2732549399487</v>
       </c>
       <c r="X46" t="n">
-        <v>654.8370125196138</v>
+        <v>654.8370125196129</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.5977418537658</v>
+        <v>517.5977418537642</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.951459559858918</v>
+        <v>7.951459559858961</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>406.7955089861884</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>120.0756271819436</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.951459559858918</v>
+        <v>7.951459559858961</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>88.21619221024486</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>44.67607654515137</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>205.5556822487672</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>78.57864546978894</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,13 +9404,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504498</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119825</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>216.6966405963618</v>
+        <v>124.8754767770693</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>78.57864546978951</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>6.735900996519064</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>343.0438824823681</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>44.67607654515086</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>78.57864546978951</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>7.951459559858932</v>
+        <v>52.62753610500989</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>120.0756271819433</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714824</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,25 +10665,25 @@
         <v>7.951459559858932</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>111.2381661835155</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>44.67607654515086</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>78.57864546978951</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.67607654515092</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,13 +11148,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>87.41610646821741</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>44.67607654515086</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928326</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>449.4189907732488</v>
+        <v>205.5556822487672</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.7795714149542</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>340.3186215224812</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>86.5049152347019</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>94.85220997855053</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>184.3863072818342</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>324.2866984688866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>344.7768304299427</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>154.8777099334109</v>
       </c>
       <c r="C13" t="n">
-        <v>142.2925508501015</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>123.661202769686</v>
@@ -23425,7 +23425,7 @@
         <v>121.4796923980428</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.4667777744049</v>
       </c>
       <c r="G13" t="n">
         <v>141.981753513654</v>
@@ -23434,7 +23434,7 @@
         <v>127.8933879574564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77081274701504</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>104.9044813177992</v>
       </c>
       <c r="S13" t="n">
-        <v>180.6773288969401</v>
+        <v>91.64663669169175</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>181.5447305696384</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>227.1833730753016</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.7795714149541</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>197.3890482668475</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>184.3863072818342</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>324.2866984688866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>344.7768304299427</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>154.8777099334109</v>
       </c>
       <c r="C16" t="n">
-        <v>142.2925508501014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.6612027696859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>121.4796923980428</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.4667777744049</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8933879574563</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77081274701506</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177991</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>156.4629404649935</v>
       </c>
       <c r="T16" t="n">
-        <v>198.4837816320202</v>
+        <v>198.4837816320203</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1833730753016</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>261.5687280880646</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405107</v>
+        <v>200.7553851405108</v>
       </c>
       <c r="Y16" t="n">
-        <v>104.9646462077003</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366449</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.0073076026366</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>65.65185058227057</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>4.142481864021136</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.11420478903254</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>32.25383304690129</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>59.23815502285588</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>70.12988281307798</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.11420478903261</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>32.25383304690371</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.0073076026366</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>88.36073023329732</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>4.142481864022329</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>129.3680378359344</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D31" t="n">
-        <v>4.142481864024093</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>84.2182483692757</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.00730760263671</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>44.83899213021118</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>63.47034021062682</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.8976976253076</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>18.23084742021976</v>
       </c>
     </row>
     <row r="35">
@@ -25318,13 +25318,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>45.14978946665929</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>84.2182483692757</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45.14978946666042</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.89769762530767</v>
+        <v>18.2308474202196</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002656</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7670675806020455</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002643</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>66.66476520590713</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.948577952243497</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>84.52904570572308</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>44.83899213021115</v>
+        <v>59.23815502285823</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>70.1298828130781</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>827838.1321383644</v>
+        <v>827838.1321383642</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>827838.1321383645</v>
+        <v>827838.1321383641</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940060.9035739679</v>
+        <v>940060.9035739677</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940060.9035739677</v>
+        <v>940060.9035739679</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>940060.9035739676</v>
+        <v>940060.9035739677</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>940060.9035739677</v>
+        <v>940060.9035739679</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940060.9035739679</v>
+        <v>940060.9035739677</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>465345.5531732328</v>
+        <v>465345.5531732326</v>
       </c>
       <c r="F2" t="n">
         <v>465345.5531732326</v>
       </c>
       <c r="G2" t="n">
-        <v>531659.0090215431</v>
+        <v>531659.0090215433</v>
       </c>
       <c r="H2" t="n">
-        <v>531659.0090215434</v>
+        <v>531659.0090215433</v>
       </c>
       <c r="I2" t="n">
         <v>531659.0090215437</v>
       </c>
       <c r="J2" t="n">
-        <v>531659.0090215437</v>
+        <v>531659.0090215438</v>
       </c>
       <c r="K2" t="n">
-        <v>531659.0090215432</v>
+        <v>531659.0090215435</v>
       </c>
       <c r="L2" t="n">
-        <v>531659.0090215437</v>
+        <v>531659.0090215435</v>
       </c>
       <c r="M2" t="n">
-        <v>531659.0090215437</v>
+        <v>531659.009021543</v>
       </c>
       <c r="N2" t="n">
         <v>531659.0090215438</v>
       </c>
       <c r="O2" t="n">
-        <v>531659.0090215433</v>
+        <v>531659.0090215437</v>
       </c>
       <c r="P2" t="n">
-        <v>531659.0090215435</v>
+        <v>531659.0090215434</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691230.6639893666</v>
+        <v>691230.6639893663</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550261</v>
+        <v>46210.80411550275</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83023.35879792737</v>
+        <v>83023.35879792733</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550267</v>
+        <v>46210.80411550275</v>
       </c>
       <c r="M3" t="n">
-        <v>167978.6741701941</v>
+        <v>167978.674170194</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.4161988212</v>
+        <v>19963.41619882111</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>66278.56696006698</v>
       </c>
       <c r="F4" t="n">
-        <v>66278.56696006704</v>
+        <v>66278.56696006698</v>
       </c>
       <c r="G4" t="n">
-        <v>124651.2300728578</v>
+        <v>124651.2300728579</v>
       </c>
       <c r="H4" t="n">
         <v>124651.2300728579</v>
       </c>
       <c r="I4" t="n">
-        <v>124651.2300728578</v>
+        <v>124651.2300728579</v>
       </c>
       <c r="J4" t="n">
         <v>124651.2300728579</v>
       </c>
       <c r="K4" t="n">
-        <v>124651.2300728578</v>
+        <v>124651.2300728579</v>
       </c>
       <c r="L4" t="n">
         <v>124651.2300728579</v>
       </c>
       <c r="M4" t="n">
+        <v>124651.2300728579</v>
+      </c>
+      <c r="N4" t="n">
+        <v>124651.2300728579</v>
+      </c>
+      <c r="O4" t="n">
+        <v>124651.230072858</v>
+      </c>
+      <c r="P4" t="n">
         <v>124651.2300728578</v>
-      </c>
-      <c r="N4" t="n">
-        <v>124651.2300728578</v>
-      </c>
-      <c r="O4" t="n">
-        <v>124651.2300728579</v>
-      </c>
-      <c r="P4" t="n">
-        <v>124651.2300728579</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70487.90653947929</v>
+        <v>70487.90653947926</v>
       </c>
       <c r="F5" t="n">
-        <v>70487.90653947929</v>
+        <v>70487.90653947927</v>
       </c>
       <c r="G5" t="n">
+        <v>75344.02665346202</v>
+      </c>
+      <c r="H5" t="n">
+        <v>75344.026653462</v>
+      </c>
+      <c r="I5" t="n">
         <v>75344.02665346203</v>
-      </c>
-      <c r="H5" t="n">
-        <v>75344.02665346203</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75344.02665346202</v>
       </c>
       <c r="J5" t="n">
         <v>75344.02665346203</v>
       </c>
       <c r="K5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="L5" t="n">
         <v>75344.02665346203</v>
       </c>
       <c r="M5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="N5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="O5" t="n">
         <v>75344.02665346203</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83663.49712611921</v>
+        <v>83663.49712611909</v>
       </c>
       <c r="C6" t="n">
-        <v>164432.928657667</v>
+        <v>164432.9286576672</v>
       </c>
       <c r="D6" t="n">
-        <v>164432.9286576668</v>
+        <v>164432.9286576671</v>
       </c>
       <c r="E6" t="n">
-        <v>-362651.58431568</v>
+        <v>-362914.3981512128</v>
       </c>
       <c r="F6" t="n">
-        <v>328579.0796736863</v>
+        <v>328316.2658381535</v>
       </c>
       <c r="G6" t="n">
-        <v>285452.9481797206</v>
+        <v>285445.1860974504</v>
       </c>
       <c r="H6" t="n">
-        <v>331663.7522952235</v>
+        <v>331655.9902129534</v>
       </c>
       <c r="I6" t="n">
-        <v>331663.7522952241</v>
+        <v>331655.9902129535</v>
       </c>
       <c r="J6" t="n">
-        <v>248640.3934972963</v>
+        <v>248632.6314150264</v>
       </c>
       <c r="K6" t="n">
-        <v>331663.7522952234</v>
+        <v>331655.9902129534</v>
       </c>
       <c r="L6" t="n">
-        <v>285452.948179721</v>
+        <v>285445.1860974507</v>
       </c>
       <c r="M6" t="n">
-        <v>163685.0781250297</v>
+        <v>163677.3160427588</v>
       </c>
       <c r="N6" t="n">
-        <v>331663.7522952239</v>
+        <v>331655.9902129536</v>
       </c>
       <c r="O6" t="n">
-        <v>311700.3360964021</v>
+        <v>311692.5740141324</v>
       </c>
       <c r="P6" t="n">
-        <v>331663.7522952236</v>
+        <v>331655.9902129535</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>24.95427024852636</v>
       </c>
       <c r="F2" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I2" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J2" t="n">
         <v>82.71777539290476</v>
       </c>
       <c r="K2" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L2" t="n">
         <v>82.71777539290476</v>
       </c>
       <c r="M2" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N2" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="P2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634614</v>
+        <v>585.0208306634612</v>
       </c>
       <c r="F3" t="n">
-        <v>585.0208306634614</v>
+        <v>585.0208306634612</v>
       </c>
       <c r="G3" t="n">
-        <v>585.0208306634615</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="H3" t="n">
-        <v>585.0208306634615</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="I3" t="n">
         <v>585.0208306634613</v>
@@ -26796,16 +26796,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850731</v>
       </c>
       <c r="F4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850732</v>
       </c>
       <c r="G4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850732</v>
       </c>
       <c r="H4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.075195485073</v>
       </c>
       <c r="I4" t="n">
         <v>915.0751954850733</v>
@@ -26829,7 +26829,7 @@
         <v>915.0751954850733</v>
       </c>
       <c r="P4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850734</v>
       </c>
     </row>
   </sheetData>
@@ -26917,25 +26917,25 @@
         <v>24.95427024852636</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.76350514437827</v>
+        <v>57.76350514437843</v>
       </c>
       <c r="H2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852643</v>
+        <v>24.95427024852633</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437834</v>
+        <v>57.76350514437843</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.9542702485265</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634614</v>
+        <v>585.0208306634612</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>674.0609066074144</v>
+        <v>674.060906607414</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074144</v>
+        <v>674.060906607414</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>24.95427024852636</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437827</v>
+        <v>57.76350514437843</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852643</v>
+        <v>24.95427024852633</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074144</v>
+        <v>674.060906607414</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>342.8322390905863</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>321.5658761340403</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,10 +27470,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>118.9346901277529</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>155.9614419241454</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>145.2128293259435</v>
       </c>
       <c r="D4" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>182.9724219348918</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,19 +27749,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>220.295825702808</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>113.0494892459669</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>37.52545250819722</v>
+        <v>57.07350359897357</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>142.265735089176</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>285.1023360187363</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.2220797075721</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27989,13 +27989,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>118.0834041913303</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>37.22501299855256</v>
+        <v>34.50357226344606</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.135189281195267</v>
+        <v>2.135189281195323</v>
       </c>
       <c r="S11" t="n">
         <v>24.95427024852636</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="C14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="D14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="E14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="F14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="G14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="H14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="I14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.135189281195267</v>
+        <v>2.135189281195323</v>
       </c>
       <c r="S14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="T14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="U14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="V14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="W14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="X14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="C16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="D16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="F16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="G16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="H16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="I16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="J16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="K16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="L16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="M16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="N16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="O16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="P16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="S16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="T16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="U16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="V16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="W16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="X16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852636</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.135189281195238</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.135189281195238</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="K43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="L43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="M43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="N43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="O43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="P43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="R43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="S43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290467</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.351842535330496</v>
+        <v>2.351842535330495</v>
       </c>
       <c r="H11" t="n">
-        <v>24.08580736495345</v>
+        <v>24.08580736495344</v>
       </c>
       <c r="I11" t="n">
-        <v>90.66940934332905</v>
+        <v>90.66940934332902</v>
       </c>
       <c r="J11" t="n">
-        <v>199.6096953830069</v>
+        <v>199.6096953830068</v>
       </c>
       <c r="K11" t="n">
-        <v>299.1631899035469</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L11" t="n">
-        <v>371.1383908941676</v>
+        <v>371.1383908941675</v>
       </c>
       <c r="M11" t="n">
-        <v>412.9629705818513</v>
+        <v>412.9629705818512</v>
       </c>
       <c r="N11" t="n">
-        <v>419.6451431853591</v>
+        <v>419.645143185359</v>
       </c>
       <c r="O11" t="n">
-        <v>396.2590089746665</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P11" t="n">
-        <v>338.1978963836948</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q11" t="n">
-        <v>253.9725355871713</v>
+        <v>253.9725355871712</v>
       </c>
       <c r="R11" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S11" t="n">
-        <v>53.59261177384374</v>
+        <v>53.59261177384372</v>
       </c>
       <c r="T11" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1881474028264397</v>
+        <v>0.1881474028264396</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I12" t="n">
-        <v>43.32465585573748</v>
+        <v>43.32465585573746</v>
       </c>
       <c r="J12" t="n">
-        <v>118.8861671068078</v>
+        <v>118.8861671068077</v>
       </c>
       <c r="K12" t="n">
-        <v>203.1953954956289</v>
+        <v>203.1953954956288</v>
       </c>
       <c r="L12" t="n">
-        <v>273.2212851131572</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M12" t="n">
-        <v>318.8363527115864</v>
+        <v>318.8363527115863</v>
       </c>
       <c r="N12" t="n">
-        <v>327.2750022406849</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O12" t="n">
-        <v>299.3926886886867</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P12" t="n">
-        <v>240.2890275983565</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q12" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R12" t="n">
-        <v>78.12787621577324</v>
+        <v>78.12787621577321</v>
       </c>
       <c r="S12" t="n">
-        <v>23.37323790433734</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T12" t="n">
-        <v>5.072020220563404</v>
+        <v>5.072020220563402</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08278596660332005</v>
+        <v>0.08278596660332002</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H13" t="n">
-        <v>9.379514301456814</v>
+        <v>9.37951430145681</v>
       </c>
       <c r="I13" t="n">
-        <v>31.7253919317169</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58536065688097</v>
+        <v>74.58536065688094</v>
       </c>
       <c r="K13" t="n">
-        <v>122.5666592767055</v>
+        <v>122.5666592767054</v>
       </c>
       <c r="L13" t="n">
-        <v>156.843125650332</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M13" t="n">
-        <v>165.3690849693453</v>
+        <v>165.3690849693452</v>
       </c>
       <c r="N13" t="n">
-        <v>161.4369777468533</v>
+        <v>161.4369777468532</v>
       </c>
       <c r="O13" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P13" t="n">
-        <v>127.5920841171588</v>
+        <v>127.5920841171587</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.33814543018268</v>
+        <v>88.33814543018264</v>
       </c>
       <c r="R13" t="n">
-        <v>47.43463981084392</v>
+        <v>47.4346398108439</v>
       </c>
       <c r="S13" t="n">
-        <v>18.38499889150582</v>
+        <v>18.38499889150581</v>
       </c>
       <c r="T13" t="n">
-        <v>4.507537547734865</v>
+        <v>4.507537547734863</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05754303252427496</v>
+        <v>0.05754303252427493</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.351842535330496</v>
+        <v>2.351842535330495</v>
       </c>
       <c r="H14" t="n">
-        <v>24.08580736495345</v>
+        <v>24.08580736495344</v>
       </c>
       <c r="I14" t="n">
-        <v>90.66940934332905</v>
+        <v>90.66940934332902</v>
       </c>
       <c r="J14" t="n">
-        <v>199.6096953830069</v>
+        <v>199.6096953830068</v>
       </c>
       <c r="K14" t="n">
-        <v>299.1631899035469</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L14" t="n">
-        <v>371.1383908941676</v>
+        <v>371.1383908941675</v>
       </c>
       <c r="M14" t="n">
-        <v>412.9629705818513</v>
+        <v>412.9629705818512</v>
       </c>
       <c r="N14" t="n">
-        <v>419.6451431853591</v>
+        <v>419.645143185359</v>
       </c>
       <c r="O14" t="n">
-        <v>396.2590089746665</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P14" t="n">
-        <v>338.1978963836948</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q14" t="n">
-        <v>253.9725355871713</v>
+        <v>253.9725355871712</v>
       </c>
       <c r="R14" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S14" t="n">
-        <v>53.59261177384374</v>
+        <v>53.59261177384372</v>
       </c>
       <c r="T14" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1881474028264397</v>
+        <v>0.1881474028264396</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I15" t="n">
-        <v>43.32465585573748</v>
+        <v>43.32465585573746</v>
       </c>
       <c r="J15" t="n">
-        <v>118.8861671068078</v>
+        <v>118.8861671068077</v>
       </c>
       <c r="K15" t="n">
-        <v>203.1953954956289</v>
+        <v>203.1953954956288</v>
       </c>
       <c r="L15" t="n">
-        <v>273.2212851131572</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M15" t="n">
-        <v>318.8363527115864</v>
+        <v>318.8363527115863</v>
       </c>
       <c r="N15" t="n">
-        <v>327.2750022406849</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O15" t="n">
-        <v>299.3926886886867</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P15" t="n">
-        <v>240.2890275983565</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q15" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R15" t="n">
-        <v>78.12787621577324</v>
+        <v>78.12787621577321</v>
       </c>
       <c r="S15" t="n">
-        <v>23.37323790433734</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T15" t="n">
-        <v>5.072020220563404</v>
+        <v>5.072020220563402</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08278596660332005</v>
+        <v>0.08278596660332002</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H16" t="n">
-        <v>9.379514301456814</v>
+        <v>9.37951430145681</v>
       </c>
       <c r="I16" t="n">
-        <v>31.7253919317169</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58536065688097</v>
+        <v>74.58536065688094</v>
       </c>
       <c r="K16" t="n">
-        <v>122.5666592767055</v>
+        <v>122.5666592767054</v>
       </c>
       <c r="L16" t="n">
-        <v>156.843125650332</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M16" t="n">
-        <v>165.3690849693453</v>
+        <v>165.3690849693452</v>
       </c>
       <c r="N16" t="n">
-        <v>161.4369777468533</v>
+        <v>161.4369777468532</v>
       </c>
       <c r="O16" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P16" t="n">
-        <v>127.5920841171588</v>
+        <v>127.5920841171587</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.33814543018268</v>
+        <v>88.33814543018264</v>
       </c>
       <c r="R16" t="n">
-        <v>47.43463981084392</v>
+        <v>47.4346398108439</v>
       </c>
       <c r="S16" t="n">
-        <v>18.38499889150582</v>
+        <v>18.38499889150581</v>
       </c>
       <c r="T16" t="n">
-        <v>4.507537547734865</v>
+        <v>4.507537547734863</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05754303252427496</v>
+        <v>0.05754303252427493</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.351842535330497</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H17" t="n">
-        <v>24.08580736495346</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I17" t="n">
-        <v>90.66940934332906</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J17" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K17" t="n">
-        <v>299.1631899035469</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L17" t="n">
-        <v>371.1383908941677</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M17" t="n">
-        <v>412.9629705818514</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N17" t="n">
-        <v>419.6451431853592</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O17" t="n">
-        <v>396.2590089746666</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P17" t="n">
-        <v>338.1978963836949</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q17" t="n">
-        <v>253.9725355871714</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R17" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S17" t="n">
-        <v>53.59261177384375</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T17" t="n">
-        <v>10.29519069840926</v>
+        <v>10.29519069840925</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1881474028264397</v>
+        <v>0.1881474028264396</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I18" t="n">
-        <v>43.32465585573749</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J18" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K18" t="n">
-        <v>203.1953954956289</v>
+        <v>203.1953954956288</v>
       </c>
       <c r="L18" t="n">
-        <v>273.2212851131573</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M18" t="n">
-        <v>318.8363527115865</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N18" t="n">
-        <v>327.275002240685</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O18" t="n">
-        <v>299.3926886886867</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P18" t="n">
-        <v>240.2890275983565</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q18" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R18" t="n">
-        <v>78.12787621577326</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S18" t="n">
-        <v>23.37323790433734</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T18" t="n">
-        <v>5.072020220563405</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08278596660332006</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,19 +32385,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H19" t="n">
-        <v>9.379514301456815</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I19" t="n">
-        <v>31.7253919317169</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58536065688098</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K19" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L19" t="n">
-        <v>156.843125650332</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M19" t="n">
         <v>165.3690849693453</v>
@@ -32412,19 +32412,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.33814543018269</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R19" t="n">
-        <v>47.43463981084393</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S19" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T19" t="n">
-        <v>4.507537547734866</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05754303252427496</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.351842535330497</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H20" t="n">
-        <v>24.08580736495346</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I20" t="n">
-        <v>90.66940934332906</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J20" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K20" t="n">
-        <v>299.1631899035469</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L20" t="n">
-        <v>371.1383908941677</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M20" t="n">
-        <v>412.9629705818514</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N20" t="n">
-        <v>419.6451431853592</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O20" t="n">
-        <v>396.2590089746666</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P20" t="n">
-        <v>338.1978963836949</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q20" t="n">
-        <v>253.9725355871714</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R20" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S20" t="n">
-        <v>53.59261177384375</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T20" t="n">
-        <v>10.29519069840926</v>
+        <v>10.29519069840925</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1881474028264397</v>
+        <v>0.1881474028264396</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I21" t="n">
-        <v>43.32465585573749</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J21" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K21" t="n">
-        <v>203.1953954956289</v>
+        <v>203.1953954956288</v>
       </c>
       <c r="L21" t="n">
-        <v>273.2212851131573</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M21" t="n">
-        <v>318.8363527115865</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N21" t="n">
-        <v>327.275002240685</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O21" t="n">
-        <v>299.3926886886867</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P21" t="n">
-        <v>240.2890275983565</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q21" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R21" t="n">
-        <v>78.12787621577326</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S21" t="n">
-        <v>23.37323790433734</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T21" t="n">
-        <v>5.072020220563405</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08278596660332006</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,19 +32622,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H22" t="n">
-        <v>9.379514301456815</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I22" t="n">
-        <v>31.7253919317169</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58536065688098</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K22" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L22" t="n">
-        <v>156.843125650332</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M22" t="n">
         <v>165.3690849693453</v>
@@ -32649,19 +32649,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.33814543018269</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R22" t="n">
-        <v>47.43463981084393</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S22" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T22" t="n">
-        <v>4.507537547734866</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05754303252427496</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,16 +35261,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K11" t="n">
-        <v>403.2187514297311</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L11" t="n">
-        <v>553.0331904746308</v>
+        <v>553.0331904746306</v>
       </c>
       <c r="M11" t="n">
-        <v>632.1302708474111</v>
+        <v>632.1302708474109</v>
       </c>
       <c r="N11" t="n">
-        <v>627.5790040007523</v>
+        <v>627.5790040007522</v>
       </c>
       <c r="O11" t="n">
-        <v>546.9609788157251</v>
+        <v>546.960978815725</v>
       </c>
       <c r="P11" t="n">
-        <v>428.7636087999079</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q11" t="n">
-        <v>243.9818363726265</v>
+        <v>243.9818363726264</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126979</v>
       </c>
       <c r="L12" t="n">
-        <v>505.5072506367422</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M12" t="n">
-        <v>583.4978277757565</v>
+        <v>642.4073825395678</v>
       </c>
       <c r="N12" t="n">
-        <v>195.9332901573516</v>
+        <v>675.275664500905</v>
       </c>
       <c r="O12" t="n">
-        <v>550.6587635209718</v>
+        <v>276.8720714261858</v>
       </c>
       <c r="P12" t="n">
-        <v>424.7773888239634</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.6450773821802</v>
+        <v>20.64507738218015</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734547</v>
+        <v>6.180450788734518</v>
       </c>
       <c r="K13" t="n">
-        <v>125.251437699349</v>
+        <v>125.2514376993489</v>
       </c>
       <c r="L13" t="n">
         <v>209.3874211591744</v>
       </c>
       <c r="M13" t="n">
-        <v>229.9072321797123</v>
+        <v>229.9072321797122</v>
       </c>
       <c r="N13" t="n">
         <v>230.5234203746082</v>
       </c>
       <c r="O13" t="n">
-        <v>198.6525764438038</v>
+        <v>198.6525764438037</v>
       </c>
       <c r="P13" t="n">
-        <v>149.8249136305787</v>
+        <v>149.8249136305786</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.13037242701465</v>
+        <v>27.13037242701461</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K14" t="n">
-        <v>403.2187514297311</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L14" t="n">
-        <v>553.0331904746308</v>
+        <v>553.0331904746306</v>
       </c>
       <c r="M14" t="n">
-        <v>632.1302708474111</v>
+        <v>632.1302708474109</v>
       </c>
       <c r="N14" t="n">
-        <v>627.5790040007523</v>
+        <v>627.5790040007522</v>
       </c>
       <c r="O14" t="n">
-        <v>546.9609788157251</v>
+        <v>546.960978815725</v>
       </c>
       <c r="P14" t="n">
-        <v>428.7636087999079</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q14" t="n">
-        <v>243.9818363726265</v>
+        <v>243.9818363726264</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126979</v>
       </c>
       <c r="L15" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M15" t="n">
-        <v>264.918510999813</v>
+        <v>642.4073825395678</v>
       </c>
       <c r="N15" t="n">
-        <v>675.2756645009051</v>
+        <v>675.275664500905</v>
       </c>
       <c r="O15" t="n">
-        <v>550.6587635209718</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P15" t="n">
-        <v>424.7773888239634</v>
+        <v>150.9906967291775</v>
       </c>
       <c r="Q15" t="n">
-        <v>230.7223651180293</v>
+        <v>20.64507738218015</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734603</v>
+        <v>6.180450788734518</v>
       </c>
       <c r="K16" t="n">
-        <v>125.251437699349</v>
+        <v>125.2514376993489</v>
       </c>
       <c r="L16" t="n">
-        <v>209.3874211591745</v>
+        <v>209.3874211591744</v>
       </c>
       <c r="M16" t="n">
-        <v>229.9072321797123</v>
+        <v>229.9072321797122</v>
       </c>
       <c r="N16" t="n">
-        <v>230.5234203746083</v>
+        <v>230.5234203746082</v>
       </c>
       <c r="O16" t="n">
-        <v>198.6525764438038</v>
+        <v>198.6525764438037</v>
       </c>
       <c r="P16" t="n">
-        <v>149.8249136305787</v>
+        <v>149.8249136305786</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.13037242701471</v>
+        <v>27.13037242701461</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>187.6604060283938</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K17" t="n">
-        <v>403.2187514297311</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L17" t="n">
         <v>553.0331904746308</v>
       </c>
       <c r="M17" t="n">
-        <v>632.1302708474111</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N17" t="n">
-        <v>627.5790040007525</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O17" t="n">
-        <v>546.9609788157252</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P17" t="n">
-        <v>428.763608799908</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.9818363726266</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8191935338485</v>
+        <v>270.9096387700371</v>
       </c>
       <c r="L18" t="n">
-        <v>505.5072506367422</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M18" t="n">
-        <v>176.7023187895682</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N18" t="n">
-        <v>274.5119356271406</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O18" t="n">
-        <v>550.6587635209719</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P18" t="n">
-        <v>424.7773888239634</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q18" t="n">
-        <v>230.7223651180293</v>
+        <v>20.64507738218018</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311289</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K19" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L19" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M19" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O19" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P19" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139299</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K20" t="n">
-        <v>403.2187514297311</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L20" t="n">
-        <v>553.0331904746303</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M20" t="n">
-        <v>632.1302708474111</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N20" t="n">
-        <v>627.5790040007525</v>
+        <v>627.5790040007506</v>
       </c>
       <c r="O20" t="n">
-        <v>546.9609788157252</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P20" t="n">
-        <v>428.763608799908</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q20" t="n">
-        <v>243.9818363726266</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8191935338485</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L21" t="n">
-        <v>134.6669053332831</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M21" t="n">
-        <v>642.4073825395681</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N21" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O21" t="n">
-        <v>373.4930848406041</v>
+        <v>281.6719210213115</v>
       </c>
       <c r="P21" t="n">
-        <v>106.3146201840263</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q21" t="n">
         <v>230.7223651180293</v>
@@ -36285,19 +36285,19 @@
         <v>267.1509263035529</v>
       </c>
       <c r="M22" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N22" t="n">
         <v>288.2869255189867</v>
       </c>
       <c r="O22" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P22" t="n">
         <v>207.5884187749571</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.89387757139306</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>505.5072506367421</v>
       </c>
       <c r="M24" t="n">
-        <v>176.702318789568</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N24" t="n">
-        <v>274.511935627141</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O24" t="n">
-        <v>550.6587635209717</v>
+        <v>163.5323452407613</v>
       </c>
       <c r="P24" t="n">
         <v>424.7773888239633</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.94395593311286</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K25" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L25" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M25" t="n">
-        <v>287.6707373240905</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N25" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O25" t="n">
-        <v>256.416081588182</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P25" t="n">
-        <v>207.5884187749569</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.89387757139295</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K27" t="n">
         <v>65.35395652126985</v>
@@ -36680,19 +36680,19 @@
         <v>505.5072506367421</v>
       </c>
       <c r="M27" t="n">
-        <v>642.4073825395679</v>
+        <v>176.702318789568</v>
       </c>
       <c r="N27" t="n">
-        <v>675.2756645009051</v>
+        <v>538.9771726397196</v>
       </c>
       <c r="O27" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P27" t="n">
-        <v>150.990696729177</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.64507738218018</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>505.5072506367421</v>
       </c>
       <c r="M30" t="n">
-        <v>255.2809642593575</v>
+        <v>176.702318789568</v>
       </c>
       <c r="N30" t="n">
-        <v>195.9332901573515</v>
+        <v>274.511935627141</v>
       </c>
       <c r="O30" t="n">
         <v>550.6587635209717</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.94395593311286</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K31" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L31" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M31" t="n">
-        <v>287.6707373240905</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N31" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O31" t="n">
-        <v>256.416081588182</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P31" t="n">
-        <v>207.5884187749569</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.89387757139295</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>44.67607654515096</v>
       </c>
       <c r="K33" t="n">
         <v>65.35395652126985</v>
@@ -37160,10 +37160,10 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O33" t="n">
-        <v>276.8720714261855</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P33" t="n">
-        <v>424.7773888239633</v>
+        <v>106.3146201840262</v>
       </c>
       <c r="Q33" t="n">
         <v>20.64507738218018</v>
@@ -37321,7 +37321,7 @@
         <v>546.9609788157251</v>
       </c>
       <c r="P35" t="n">
-        <v>428.7636087999078</v>
+        <v>428.7636087999076</v>
       </c>
       <c r="Q35" t="n">
         <v>243.9818363726265</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>65.35395652126985</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L36" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M36" t="n">
-        <v>642.4073825395679</v>
+        <v>287.9404849730835</v>
       </c>
       <c r="N36" t="n">
         <v>675.2756645009051</v>
       </c>
       <c r="O36" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P36" t="n">
-        <v>150.990696729177</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.64507738218018</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.94395593311286</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K37" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L37" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M37" t="n">
-        <v>287.6707373240905</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N37" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O37" t="n">
-        <v>256.416081588182</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P37" t="n">
-        <v>207.5884187749569</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.89387757139295</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K39" t="n">
-        <v>65.35395652126985</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L39" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M39" t="n">
-        <v>642.4073825395679</v>
+        <v>176.702318789568</v>
       </c>
       <c r="N39" t="n">
-        <v>675.2756645009051</v>
+        <v>274.511935627141</v>
       </c>
       <c r="O39" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P39" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q39" t="n">
-        <v>65.3211539273311</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.94395593311286</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K40" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L40" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M40" t="n">
-        <v>287.6707373240905</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N40" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O40" t="n">
-        <v>256.416081588182</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P40" t="n">
-        <v>207.5884187749569</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.89387757139295</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K42" t="n">
         <v>65.35395652126985</v>
@@ -37868,13 +37868,13 @@
         <v>642.4073825395679</v>
       </c>
       <c r="N42" t="n">
-        <v>675.2756645009051</v>
+        <v>283.3493966255689</v>
       </c>
       <c r="O42" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P42" t="n">
-        <v>150.990696729177</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q42" t="n">
         <v>20.64507738218018</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311299</v>
       </c>
       <c r="K43" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L43" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M43" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240907</v>
       </c>
       <c r="N43" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O43" t="n">
-        <v>256.4160815881821</v>
+        <v>256.4160815881822</v>
       </c>
       <c r="P43" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139308</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>553.0331904746308</v>
       </c>
       <c r="M44" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474111</v>
       </c>
       <c r="N44" t="n">
         <v>627.5790040007523</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L45" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M45" t="n">
-        <v>176.702318789568</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N45" t="n">
-        <v>645.3522809306003</v>
+        <v>401.4889724061187</v>
       </c>
       <c r="O45" t="n">
         <v>550.6587635209717</v>
@@ -38114,7 +38114,7 @@
         <v>424.7773888239633</v>
       </c>
       <c r="Q45" t="n">
-        <v>230.7223651180293</v>
+        <v>20.64507738218018</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311285</v>
       </c>
       <c r="K46" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L46" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M46" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N46" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O46" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P46" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139293</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
